--- a/Scenario-Test/Scenario Test Mile App.xlsx
+++ b/Scenario-Test/Scenario Test Mile App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belajar\QA-mileapp-test\Scenario-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D7F0D-1C50-4D55-9A2E-30265E81CE96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC0F81F-A2CC-4C0A-9F40-5A8C63BCE0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C48F262C-E23E-44B8-BF5F-0102AC3B07FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C48F262C-E23E-44B8-BF5F-0102AC3B07FB}"/>
   </bookViews>
   <sheets>
     <sheet name="UI Testing" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9F77DC6A-CF14-46AE-AA27-68282447E857}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9F77DC6A-CF14-46AE-AA27-68282447E857}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3DD5AA0D-E95F-4F78-82B8-CE57ABED41AD}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3DD5AA0D-E95F-4F78-82B8-CE57ABED41AD}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{438ACE5B-43AF-42B4-A0B4-04358DDBD996}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{438ACE5B-43AF-42B4-A0B4-04358DDBD996}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{BDA40AA7-E4B5-4725-A7FD-6CFACA5BBBFD}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{BDA40AA7-E4B5-4725-A7FD-6CFACA5BBBFD}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{98CC1060-EAD5-4A7A-8B5B-CFDB0087BF25}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{98CC1060-EAD5-4A7A-8B5B-CFDB0087BF25}">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{65BE8F3A-5640-48ED-B7EE-45467BE47BC2}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{65BE8F3A-5640-48ED-B7EE-45467BE47BC2}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{C03625F7-6243-4260-BB77-AD665B4460BB}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{C03625F7-6243-4260-BB77-AD665B4460BB}">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="147">
   <si>
     <t>P</t>
   </si>
@@ -574,6 +574,308 @@
   </si>
   <si>
     <t>UI Testing</t>
+  </si>
+  <si>
+    <t>validate_when_column_company_name_empty_and_click_button</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input Phone Number : 89636743133
+5. Input Email: yanaandika@ymail.com
+6. Click Button 'Request Demo'</t>
+  </si>
+  <si>
+    <t>Terdapat Validasi dengan informasi "The Organization Name Field"</t>
+  </si>
+  <si>
+    <t>Terdapat Validasi dengan informasi "The email field is required."</t>
+  </si>
+  <si>
+    <t>Muncul validasi Pop up dengan informasi 'The email field is required.'</t>
+  </si>
+  <si>
+    <t>Muncul validasi pop up 'The organization name field is required.'</t>
+  </si>
+  <si>
+    <t>06-10-2020</t>
+  </si>
+  <si>
+    <t>validate_when_column_phone_number_empty_and_click_button</t>
+  </si>
+  <si>
+    <t>Terdapat Validasi dengan informasi "The phone field is required."</t>
+  </si>
+  <si>
+    <t>Muncul validasi Pop up dengan informasi 'The phone field is required.'</t>
+  </si>
+  <si>
+    <t>validate_when_company_name_filled_and_then_filled_empty</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : 89636743133
+6. Input Company Name : GOOGLE
+7. Click Button 'Request Demo'</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : 89636743133
+6. Input Company Name : GOOGLE
+7. Tekan CTRL + A di column company name
+8. Tekan Backspace</t>
+  </si>
+  <si>
+    <t>Muncul label informasi "The organization_name field is required"</t>
+  </si>
+  <si>
+    <t>validate_when_email_is_empty_and_fill_next_column</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Tekan CTRL + A di column email 
+6. Tekan Backspace
+7. Input Phone Number : 89636743133</t>
+  </si>
+  <si>
+    <t>Terdapat validasi dengan informasi "The organization_name field is required"</t>
+  </si>
+  <si>
+    <t>Terdapat  validasi yang berisi indormasi  "The organization_name field is required"</t>
+  </si>
+  <si>
+    <t>Muncul label informasi "The email field is required"</t>
+  </si>
+  <si>
+    <t>validate_when_email_is_not_matching</t>
+  </si>
+  <si>
+    <t>validate_when_name_filled_and_then_fill_empty</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika</t>
+  </si>
+  <si>
+    <t>Terdapat  validasi yang berisi indormasi  "The email field must be a valid email"</t>
+  </si>
+  <si>
+    <t>Muncul label informasi "The email field must be a valid email"</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+7. Tekan CTRL + A di name
+8. Tekan Backspace</t>
+  </si>
+  <si>
+    <t>Terdapat  validasi yang berisi indormasi  "The name field is required"</t>
+  </si>
+  <si>
+    <t>Muncul label informasi "The name field is required"</t>
+  </si>
+  <si>
+    <t>validate_when_name_is_empty_after_click_button</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : 89636743133
+6. Input Company Name : GOOGLE
+7. Tekan CTRL + A di name
+8. Tekan Backspace
+9. Click Button 'Request Demo'</t>
+  </si>
+  <si>
+    <t>Terdapat Validasi dengan informasi "The full name field is required."</t>
+  </si>
+  <si>
+    <t>Muncul validasi pop up 'The The full name field is required'</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : +6289636743133</t>
+  </si>
+  <si>
+    <t>Terdapat validasi dengan informasi "The phone field may only contain numeric characters"</t>
+  </si>
+  <si>
+    <t>Muncul label informasi "The phone field may only contain numeric characters"</t>
+  </si>
+  <si>
+    <t>validate_when_phone_number_is_filled_and_then_fill_empty</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : 89636743133
+6. Tekan CTRL + A di name
+7. Tekan Backspace</t>
+  </si>
+  <si>
+    <t>Terdapat validasi dengan informasi "The phone field is required"</t>
+  </si>
+  <si>
+    <t>Muncul label informasi "The phone field is required"</t>
+  </si>
+  <si>
+    <t>Positive Case</t>
+  </si>
+  <si>
+    <t>request_demo</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : 89636743133
+6. Click Button 'Request Demo'</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Company Name : google
+6. Click Button 'Request Demo'</t>
+  </si>
+  <si>
+    <t>Beralih ke next page</t>
+  </si>
+  <si>
+    <t>change_name_after_filled_colum_number</t>
+  </si>
+  <si>
+    <t>Description Test Case</t>
+  </si>
+  <si>
+    <t>Cek validasi ketika company name kosong / tidak diisi</t>
+  </si>
+  <si>
+    <t>cek validasi ketika company name kosong / tidak diisi</t>
+  </si>
+  <si>
+    <t>cek Validasi ketika phone number kosong / tidak diisi</t>
+  </si>
+  <si>
+    <t>cek validasi ketika email kosong/tidak diisi</t>
+  </si>
+  <si>
+    <t>cek Validasi ketika format email tidak sesuai</t>
+  </si>
+  <si>
+    <t>cek Validasi ketika ketika nama kosong / tidak terisi</t>
+  </si>
+  <si>
+    <t>Cek validasi ketika format phone number tidak sesuai</t>
+  </si>
+  <si>
+    <t>validate_when_phone_number_is_alpahabetic</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : kamilah</t>
+  </si>
+  <si>
+    <t>validate_when_phone_number_have_symbol</t>
+  </si>
+  <si>
+    <t>validate_when_phone_number_is_symbol</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : (()%#$@</t>
+  </si>
+  <si>
+    <t>cek validasi ketika nomor telpon kosong/tidak diisi</t>
+  </si>
+  <si>
+    <t>validate_when_phone_number_is_not_numeric_than_request</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : (()%#$@
+6. Input company name : google
+7. Click button Request</t>
+  </si>
+  <si>
+    <t>Request Demo dengan mengisi data yang sesuai</t>
+  </si>
+  <si>
+    <t>Mengisi data, setelah mengisi colum phone number ganti nama 'tere'</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : 89636743133
+6. Tekan CTRL+A di column name
+7. Input Name: tere
+7. Input Company Name : GOOGLE
+8. Click Button 'Request Demo'</t>
+  </si>
+  <si>
+    <t>change_phone_number_with_format matching</t>
+  </si>
+  <si>
+    <t>Isi dengan data dengan number phone symbol kemudian ganti dengan format number yang sesuai</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Navigate To URL : https://dev.mile.app/request-demo
+3. Input Name : retere
+4. Input email : yanaandika@ymail.com
+5. Input Phone Number : +6289636743133
+6. Tekan CTRL+A di phone number
+7. Input Phone Number : 89636743133
+8. Input Company Name : GOOGLE
+9. Click Button 'Request Demo'</t>
+  </si>
+  <si>
+    <t>filled_empty_company_name_and_filled_Company_name</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>isi data dengan company kosong kemudian click request button, setelah ada validasi. Kemudian isi data yang sesuai</t>
+  </si>
+  <si>
+    <t>Beralih ke success Page</t>
   </si>
 </sst>
 </file>
@@ -835,7 +1137,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -897,6 +1199,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,23 +1235,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1249,10 +1578,707 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6E348B-9728-4FEF-9678-BD4BD7C37EA4}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="45.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:I8"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553C3976-27A5-49FC-85F5-09143FAE522A}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,11 +2298,11 @@
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1292,13 +2318,15 @@
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1308,11 +2336,11 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1349,54 +2377,54 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="A6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -1405,10 +2433,10 @@
       <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -1431,10 +2459,10 @@
       <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -1457,10 +2485,10 @@
       <c r="B11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -1483,10 +2511,10 @@
       <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -1502,17 +2530,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -1528,17 +2556,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -1554,17 +2582,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -1580,17 +2608,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -1607,16 +2635,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
@@ -1626,9 +2654,9 @@
         <v>63</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -1652,9 +2680,9 @@
         <v>65</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -1670,7 +2698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -1678,473 +2706,9 @@
         <v>70</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A17:H17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553C3976-27A5-49FC-85F5-09143FAE522A}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="4" width="45.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="358.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="20" t="s">
